--- a/等级设计.xlsx
+++ b/等级设计.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="160">
   <si>
     <t>等级下限</t>
   </si>
@@ -1019,11 +1019,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1055,7 +1055,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1071,6 +1070,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1078,15 +1100,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,40 +1138,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1154,9 +1163,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1168,32 +1192,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1269,7 +1269,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,13 +1293,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,79 +1371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,25 +1389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,13 +1413,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,13 +1443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,17 +1454,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1507,17 +1496,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1539,18 +1531,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1562,10 +1562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1574,133 +1574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15117,8 +15117,8 @@
   <sheetPr/>
   <dimension ref="A1:Y198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D118" workbookViewId="0">
-      <selection activeCell="O128" sqref="O128"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15212,7 +15212,7 @@
       </c>
       <c r="S2">
         <f>AVERAGE(V2:V220)</f>
-        <v>506</v>
+        <v>488.592592592593</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -15875,7 +15875,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -15915,7 +15915,7 @@
         <f>U28+U29*2</f>
         <v>508</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="W28" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -15975,7 +15975,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="10:24">
+    <row r="32" spans="10:23">
       <c r="J32">
         <v>16</v>
       </c>
@@ -16009,7 +16009,7 @@
         <f>U32+U33*2</f>
         <v>427</v>
       </c>
-      <c r="X32" s="4" t="s">
+      <c r="W32" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -16025,7 +16025,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="10:20">
+    <row r="34" spans="10:23">
       <c r="J34">
         <v>17</v>
       </c>
@@ -16049,16 +16049,30 @@
       <c r="T34">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="11:15">
+      <c r="U34">
+        <v>218</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ref="V33:V54" si="7">U34+U35*2</f>
+        <v>532</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="11:21">
       <c r="K35">
         <v>22</v>
       </c>
       <c r="O35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="10:20">
+      <c r="U35">
+        <f>20+20+30+31+56</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="10:23">
       <c r="J36">
         <v>18</v>
       </c>
@@ -16066,7 +16080,7 @@
         <v>50</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L35:L46" si="7">K36+K37*2</f>
+        <f t="shared" ref="L35:L46" si="8">K36+K37*2</f>
         <v>94</v>
       </c>
       <c r="N36">
@@ -16082,8 +16096,18 @@
       <c r="T36">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="11:15">
+      <c r="U36">
+        <v>186</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="11:21">
       <c r="K37">
         <f>7+15</f>
         <v>22</v>
@@ -16091,8 +16115,12 @@
       <c r="O37">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="10:20">
+      <c r="U37">
+        <f>9+12+20+23+48</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="10:23">
       <c r="J38">
         <v>19</v>
       </c>
@@ -16100,7 +16128,7 @@
         <v>30</v>
       </c>
       <c r="L38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="N38">
@@ -16116,8 +16144,18 @@
       <c r="T38">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="11:15">
+      <c r="U38">
+        <v>205</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="7"/>
+        <v>425</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="11:21">
       <c r="K39">
         <f>5+6</f>
         <v>11</v>
@@ -16125,8 +16163,12 @@
       <c r="O39">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="10:20">
+      <c r="U39">
+        <f>13+16+22+28+31</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="10:24">
       <c r="J40">
         <v>20</v>
       </c>
@@ -16134,7 +16176,7 @@
         <v>50</v>
       </c>
       <c r="L40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
       <c r="N40">
@@ -16144,7 +16186,7 @@
         <v>115</v>
       </c>
       <c r="P40">
-        <f t="shared" ref="P40:P44" si="8">O40+O41*2</f>
+        <f t="shared" ref="P40:P44" si="9">O40+O41*2</f>
         <v>251</v>
       </c>
       <c r="Q40" s="4" t="s">
@@ -16153,8 +16195,21 @@
       <c r="T40">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="11:15">
+      <c r="U40">
+        <v>194</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="7"/>
+        <v>408</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="11:21">
       <c r="K41">
         <f>5+8</f>
         <v>13</v>
@@ -16162,8 +16217,12 @@
       <c r="O41">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="10:20">
+      <c r="U41">
+        <f>12+12+12+35+36</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="10:22">
       <c r="J42">
         <v>21</v>
       </c>
@@ -16171,7 +16230,7 @@
         <v>13</v>
       </c>
       <c r="L42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="N42">
@@ -16181,7 +16240,7 @@
         <v>60</v>
       </c>
       <c r="P42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
       <c r="Q42" s="4" t="s">
@@ -16190,8 +16249,15 @@
       <c r="T42">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="11:15">
+      <c r="U42">
+        <v>291</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="7"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="43" spans="11:21">
       <c r="K43">
         <f>6+10</f>
         <v>16</v>
@@ -16199,8 +16265,12 @@
       <c r="O43">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="10:20">
+      <c r="U43">
+        <f>9+12+18+32+52</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="10:23">
       <c r="J44">
         <v>22</v>
       </c>
@@ -16208,7 +16278,7 @@
         <v>21</v>
       </c>
       <c r="L44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="N44">
@@ -16218,14 +16288,24 @@
         <v>51</v>
       </c>
       <c r="P44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="T44">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="11:15">
+      <c r="U44">
+        <v>149</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="7"/>
+        <v>329</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="11:21">
       <c r="K45">
         <f>10+10</f>
         <v>20</v>
@@ -16233,8 +16313,12 @@
       <c r="O45">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="10:20">
+      <c r="U45">
+        <f>9+13+13+26+29</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="10:22">
       <c r="J46">
         <v>23</v>
       </c>
@@ -16242,7 +16326,7 @@
         <v>14</v>
       </c>
       <c r="L46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="N46">
@@ -16252,14 +16336,21 @@
         <v>48</v>
       </c>
       <c r="P46">
-        <f t="shared" ref="P46:P50" si="9">O46+O47*2</f>
+        <f t="shared" ref="P46:P50" si="10">O46+O47*2</f>
         <v>154</v>
       </c>
       <c r="T46">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="11:15">
+      <c r="U46">
+        <v>242</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="7"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="47" spans="11:21">
       <c r="K47">
         <f>6+8</f>
         <v>14</v>
@@ -16267,8 +16358,12 @@
       <c r="O47">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="10:20">
+      <c r="U47">
+        <f>19+22+28+30+36</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="10:23">
       <c r="J48">
         <v>24</v>
       </c>
@@ -16282,14 +16377,24 @@
         <v>63</v>
       </c>
       <c r="P48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>159</v>
       </c>
       <c r="T48">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="11:15">
+      <c r="U48">
+        <v>139</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="7"/>
+        <v>457</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="11:21">
       <c r="K49">
         <f>4+5</f>
         <v>9</v>
@@ -16297,8 +16402,12 @@
       <c r="O49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="10:20">
+      <c r="U49">
+        <f>9+9+29+52+60</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="10:22">
       <c r="J50">
         <v>25</v>
       </c>
@@ -16312,14 +16421,21 @@
         <v>48</v>
       </c>
       <c r="P50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
       <c r="T50">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="11:15">
+      <c r="U50">
+        <v>197</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="7"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="11:21">
       <c r="K51">
         <f>6+6</f>
         <v>12</v>
@@ -16327,8 +16443,12 @@
       <c r="O51">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="10:20">
+      <c r="U51">
+        <f>10+12+20+33+46</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="10:23">
       <c r="J52">
         <v>26</v>
       </c>
@@ -16348,13 +16468,27 @@
       <c r="T52">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="15:15">
+      <c r="U52">
+        <v>228</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="7"/>
+        <v>506</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="15:21">
       <c r="O53">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" spans="10:20">
+      <c r="U53">
+        <f>11+20+27+36+45</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="10:22">
       <c r="J54">
         <v>27</v>
       </c>
@@ -16371,10 +16505,21 @@
       <c r="T54">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="15:15">
+      <c r="U54">
+        <v>209</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="7"/>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="55" spans="15:21">
       <c r="O55">
         <v>46</v>
+      </c>
+      <c r="U55">
+        <f>15+23+38+40+50</f>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="10:20">
@@ -16414,7 +16559,7 @@
         <v>38</v>
       </c>
       <c r="P58">
-        <f t="shared" ref="P58:P62" si="10">O58+O59*2</f>
+        <f t="shared" ref="P58:P62" si="11">O58+O59*2</f>
         <v>116</v>
       </c>
       <c r="T58">
@@ -16437,7 +16582,7 @@
         <v>62</v>
       </c>
       <c r="P60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
       <c r="T60">
@@ -16460,7 +16605,7 @@
         <v>117</v>
       </c>
       <c r="P62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>227</v>
       </c>
       <c r="Q62" s="4" t="s">
@@ -16486,7 +16631,7 @@
         <v>94</v>
       </c>
       <c r="P64">
-        <f t="shared" ref="P64:P68" si="11">O64+O65*2</f>
+        <f t="shared" ref="P64:P68" si="12">O64+O65*2</f>
         <v>170</v>
       </c>
       <c r="Q64" s="4" t="s">
@@ -16512,7 +16657,7 @@
         <v>50</v>
       </c>
       <c r="P66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>158</v>
       </c>
       <c r="T66">
@@ -16535,7 +16680,7 @@
         <v>59</v>
       </c>
       <c r="P68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>133</v>
       </c>
       <c r="T68">
@@ -16607,7 +16752,7 @@
         <v>42</v>
       </c>
       <c r="P74">
-        <f t="shared" ref="P74:P78" si="12">O74+O75*2</f>
+        <f t="shared" ref="P74:P78" si="13">O74+O75*2</f>
         <v>100</v>
       </c>
       <c r="T74">
@@ -16630,7 +16775,7 @@
         <v>60</v>
       </c>
       <c r="P76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>240</v>
       </c>
       <c r="T76">
@@ -16653,7 +16798,7 @@
         <v>119</v>
       </c>
       <c r="P78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>195</v>
       </c>
       <c r="T78">
@@ -16725,7 +16870,7 @@
         <v>47</v>
       </c>
       <c r="P84">
-        <f t="shared" ref="P84:P88" si="13">O84+O85*2</f>
+        <f t="shared" ref="P84:P88" si="14">O84+O85*2</f>
         <v>121</v>
       </c>
       <c r="T84">
@@ -16748,7 +16893,7 @@
         <v>100</v>
       </c>
       <c r="P86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>186</v>
       </c>
       <c r="T86">
@@ -16771,7 +16916,7 @@
         <v>47</v>
       </c>
       <c r="P88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>143</v>
       </c>
       <c r="T88">
@@ -16817,7 +16962,7 @@
         <v>84</v>
       </c>
       <c r="P92">
-        <f t="shared" ref="P91:P98" si="14">O92+O93*2</f>
+        <f t="shared" ref="P91:P98" si="15">O92+O93*2</f>
         <v>174</v>
       </c>
       <c r="Q92" s="4" t="s">
@@ -16843,7 +16988,7 @@
         <v>66</v>
       </c>
       <c r="P94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>146</v>
       </c>
       <c r="T94">
@@ -16867,7 +17012,7 @@
         <v>47</v>
       </c>
       <c r="P96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>207</v>
       </c>
       <c r="T96">
@@ -16891,7 +17036,7 @@
         <v>58</v>
       </c>
       <c r="P98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>130</v>
       </c>
       <c r="T98">
@@ -17043,7 +17188,7 @@
         <v>29</v>
       </c>
       <c r="P108">
-        <f t="shared" ref="P107:P120" si="15">O108+O109*2</f>
+        <f t="shared" ref="P107:P120" si="16">O108+O109*2</f>
         <v>63</v>
       </c>
       <c r="Q108">
@@ -17081,7 +17226,7 @@
         <v>50</v>
       </c>
       <c r="P110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="T110" s="5">
@@ -17112,7 +17257,7 @@
         <v>89</v>
       </c>
       <c r="P112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>173</v>
       </c>
       <c r="Q112" s="4" t="s">
@@ -17146,7 +17291,7 @@
         <v>64</v>
       </c>
       <c r="P114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>158</v>
       </c>
       <c r="Q114" s="4" t="s">
@@ -17180,7 +17325,7 @@
         <v>46</v>
       </c>
       <c r="P116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>86</v>
       </c>
       <c r="Q116">
@@ -17218,7 +17363,7 @@
         <v>30</v>
       </c>
       <c r="P118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>66</v>
       </c>
       <c r="R118" s="4" t="s">
@@ -17252,7 +17397,7 @@
         <v>54</v>
       </c>
       <c r="P120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>110</v>
       </c>
       <c r="T120" s="5">
